--- a/3-results/containerized.xlsx
+++ b/3-results/containerized.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris_\MSc in Professional Computer Science Big Data\2024 Spring\CMPT 756\containerized-vs-serverless\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris_\MSc in Professional Computer Science Big Data\2024 Spring\CMPT 756\containerized-vs-serverless\3-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71A2B7-7761-4501-A0A7-98E22B38D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85023480-047C-4E18-94CF-659BAA366F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E0B89197-A562-4B4A-847C-5D02A3DA0330}"/>
   </bookViews>
@@ -559,6 +559,279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D479111E-8290-DFEB-93FD-95447D10E021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="2171700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580759</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B97199B-FEDF-837A-1F27-552E3E805425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="1873250"/>
+          <a:ext cx="5089259" cy="5534797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB148E20-7025-67F3-F2F5-F890AC6CB35F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1968500"/>
+          <a:ext cx="2873375" cy="278605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E50660-C7C3-2D24-9D8F-D41D1D793338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3409949" y="1779794"/>
+          <a:ext cx="6048375" cy="2611230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6061</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DA3F25-2BA8-183F-978E-C55F7BB2C4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2636693" y="2069584"/>
+          <a:ext cx="6829425" cy="3570082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B413CFB-C470-4972-BE8D-F92BB719398E}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A4" zoomScale="60" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,8 +1552,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1289,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91692395-4F6B-4D62-9613-05CA6CA70032}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I31" sqref="I14:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,8 +1895,9 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1631,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B79D284-0EBC-44B4-8572-E0BE327F27F3}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,8 +2239,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>